--- a/Ad hoc simulacion.xlsx
+++ b/Ad hoc simulacion.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ander\OneDrive\Documents\Universidad\Simulacion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ander\OneDrive\Documents\Universidad\Simulacion\Simulacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CE3C1FE-7F6A-43B5-816C-2D80A02D7CD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12E6289-3230-4470-AF9B-3DB1EEF2E2B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{6184F94F-C831-48EF-9BD5-C01DC1B67E7D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Comprador</t>
   </si>
@@ -53,12 +53,30 @@
   <si>
     <t>Tiempo en cola</t>
   </si>
+  <si>
+    <t>Promedio enel sistema</t>
+  </si>
+  <si>
+    <t>83/20</t>
+  </si>
+  <si>
+    <t>Tiempo  promedio en cola</t>
+  </si>
+  <si>
+    <t>Fraction having to wait</t>
+  </si>
+  <si>
+    <t>Average on those who waited</t>
+  </si>
+  <si>
+    <t>º</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,8 +84,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -76,12 +110,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -104,26 +150,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF89983-22B3-4163-8F04-735440B31013}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,50 +540,50 @@
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:19" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="12">
         <v>3</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="13">
         <v>3</v>
       </c>
       <c r="G2" s="1">
@@ -505,24 +595,33 @@
       <c r="I2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
         <v>2</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="12">
         <v>2</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="13">
         <v>5</v>
       </c>
       <c r="G3" s="1">
@@ -535,24 +634,38 @@
         <f>F2-C3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12">
         <v>6</v>
       </c>
       <c r="C4" s="1">
         <v>8</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="12">
         <v>6</v>
       </c>
       <c r="E4" s="1">
         <v>8</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="13">
         <v>14</v>
       </c>
       <c r="G4" s="1">
@@ -564,25 +677,39 @@
       <c r="I4" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="L4" s="14"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="12">
         <v>5</v>
       </c>
       <c r="C5" s="1">
         <f>C4+B5</f>
         <v>13</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="12">
         <v>4</v>
       </c>
       <c r="E5" s="1">
         <v>13</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="13">
         <v>17</v>
       </c>
       <c r="G5" s="1">
@@ -592,33 +719,47 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I4:I21" si="0">F4-C5</f>
+        <f t="shared" ref="I5:I21" si="0">F4-C5</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12">
         <v>2</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" ref="C6:C21" si="1">C5+B6</f>
         <v>15</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="12">
         <v>1</v>
       </c>
       <c r="E6" s="1">
         <f>I6+C6</f>
         <v>17</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="13">
         <v>18</v>
       </c>
       <c r="G6" s="1">
-        <f>I6+D6</f>
+        <f t="shared" ref="G6:G21" si="2">I6+D6</f>
         <v>3</v>
       </c>
       <c r="H6" s="1">
@@ -628,29 +769,43 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="L6" s="14"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="6"/>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="12">
         <v>3</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="12">
         <v>2</v>
       </c>
       <c r="E7" s="1">
         <v>20</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="13">
         <v>22</v>
       </c>
       <c r="G7" s="1">
-        <f>I7+D7</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H7" s="1">
@@ -660,31 +815,45 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="6"/>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="12">
         <v>7</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="12">
         <v>6</v>
       </c>
       <c r="E8" s="1">
-        <f>C8+I8</f>
+        <f t="shared" ref="E8:E21" si="3">C8+I8</f>
         <v>25</v>
       </c>
-      <c r="F8" s="1">
-        <f>D8+E8</f>
+      <c r="F8" s="13">
+        <f t="shared" ref="F8:F21" si="4">D8+E8</f>
         <v>31</v>
       </c>
       <c r="G8" s="1">
-        <f>I8+D8</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H8" s="1">
@@ -693,31 +862,45 @@
       <c r="I8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="L8" s="14"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="6"/>
+      <c r="Q8">
+        <v>6</v>
+      </c>
+      <c r="R8">
+        <v>3</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="12">
         <v>5</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="12">
         <v>5</v>
       </c>
       <c r="E9" s="1">
-        <f>C9+I9</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="F9" s="1">
-        <f>D9+E9</f>
+      <c r="F9" s="13">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="G9" s="1">
-        <f>I9+D9</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H9" s="1">
@@ -727,31 +910,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="6"/>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="12">
         <v>5</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="12">
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <f>C10+I10</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="F10" s="1">
-        <f>D10+E10</f>
+      <c r="F10" s="13">
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="G10" s="1">
-        <f>I10+D10</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H10" s="1">
@@ -761,31 +958,45 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="L10" s="14"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="6"/>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="12">
         <v>10</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="12">
         <v>3</v>
       </c>
       <c r="E11" s="1">
-        <f>C11+I11</f>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="F11" s="1">
-        <f>D11+E11</f>
+      <c r="F11" s="13">
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="G11" s="1">
-        <f>I11+D11</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H11" s="1">
@@ -794,31 +1005,45 @@
       <c r="I11" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="6"/>
+      <c r="Q11">
+        <v>3</v>
+      </c>
+      <c r="R11">
+        <v>7</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="12">
         <v>1</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="12">
         <v>2</v>
       </c>
       <c r="E12" s="1">
-        <f>C12+I12</f>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="F12" s="1">
-        <f>D12+E12</f>
+      <c r="F12" s="13">
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="G12" s="1">
-        <f>I12+D12</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H12" s="1">
@@ -828,31 +1053,45 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="L12" s="14"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="6"/>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="12">
         <v>6</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="12">
         <v>2</v>
       </c>
       <c r="E13" s="1">
-        <f>C13+I13</f>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="F13" s="1">
-        <f>D13+E13</f>
+      <c r="F13" s="13">
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="G13" s="1">
-        <f>I13+D13</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H13" s="1">
@@ -861,31 +1100,45 @@
       <c r="I13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="6"/>
+      <c r="Q13">
+        <v>2</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="12">
         <v>2</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="12">
         <v>1</v>
       </c>
       <c r="E14" s="1">
-        <f>C14+I14</f>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="F14" s="1">
-        <f>D14+E14</f>
+      <c r="F14" s="13">
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="G14" s="1">
-        <f>I14+D14</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H14" s="1">
@@ -895,31 +1148,45 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="6"/>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="12">
         <v>3</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="12">
         <v>5</v>
       </c>
       <c r="E15" s="1">
-        <f>C15+I15</f>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="F15" s="1">
-        <f>D15+E15</f>
+      <c r="F15" s="13">
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="G15" s="1">
-        <f>I15+D15</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H15" s="1">
@@ -928,31 +1195,45 @@
       <c r="I15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="6"/>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="12">
         <v>3</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="12">
         <v>4</v>
       </c>
       <c r="E16" s="1">
-        <f>C16+I16</f>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="F16" s="1">
-        <f>D16+E16</f>
+      <c r="F16" s="13">
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="G16" s="1">
-        <f>I16+D16</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H16" s="1">
@@ -962,31 +1243,45 @@
         <f>F15-C16</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="6"/>
+      <c r="Q16">
+        <v>6</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="12">
         <v>6</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="12">
         <v>5</v>
       </c>
       <c r="E17" s="1">
-        <f>C17+I17</f>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
-      <c r="F17" s="1">
-        <f>D17+E17</f>
+      <c r="F17" s="13">
+        <f t="shared" si="4"/>
         <v>71</v>
       </c>
       <c r="G17" s="1">
-        <f>I17+D17</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H17" s="1">
@@ -996,31 +1291,45 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="6"/>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="12">
         <v>8</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="12">
         <v>4</v>
       </c>
       <c r="E18" s="1">
-        <f>C18+I18</f>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="F18" s="1">
-        <f>D18+E18</f>
+      <c r="F18" s="13">
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="G18" s="1">
-        <f>I18+D18</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H18" s="1">
@@ -1029,31 +1338,45 @@
       <c r="I18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="12">
         <v>1</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="12">
         <v>4</v>
       </c>
       <c r="E19" s="1">
-        <f>C19+I19</f>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="F19" s="1">
-        <f>D19+E19</f>
+      <c r="F19" s="13">
+        <f t="shared" si="4"/>
         <v>82</v>
       </c>
       <c r="G19" s="1">
-        <f>I19+D19</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H19" s="1">
@@ -1063,31 +1386,40 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="Q19">
+        <v>7</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="12">
         <v>2</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="12">
         <v>2</v>
       </c>
       <c r="E20" s="1">
-        <f>C20+I20</f>
+        <f t="shared" si="3"/>
         <v>82</v>
       </c>
-      <c r="F20" s="1">
-        <f>D20+E20</f>
+      <c r="F20" s="13">
+        <f t="shared" si="4"/>
         <v>84</v>
       </c>
       <c r="G20" s="1">
-        <f>I20+D20</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H20" s="1">
@@ -1097,31 +1429,40 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="Q20">
+        <v>7</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="12">
         <v>7</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="12">
         <v>2</v>
       </c>
       <c r="E21" s="1">
-        <f>C21+I21</f>
+        <f t="shared" si="3"/>
         <v>84</v>
       </c>
-      <c r="F21" s="1">
-        <f>D21+E21</f>
+      <c r="F21" s="13">
+        <f t="shared" si="4"/>
         <v>86</v>
       </c>
       <c r="G21" s="1">
-        <f>I21+D21</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H21" s="1">
@@ -1131,8 +1472,89 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="10">
+        <f>SUM(G2:G21)</f>
+        <v>83</v>
+      </c>
+      <c r="H22" s="11">
+        <f>SUM(H2:H21)</f>
+        <v>22</v>
+      </c>
+      <c r="I22" s="10">
+        <f>SUM(I2:I21)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <f>83/20</f>
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <f>22/86*100</f>
+        <v>25.581395348837212</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <f>18/20</f>
+        <v>0.9</v>
+      </c>
+      <c r="J26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27">
+        <f>9/20</f>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="2">
+        <f>18/9</f>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="N7:N16">
+    <sortCondition ref="N7"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>